--- a/hw/Tables.xlsx
+++ b/hw/Tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bb301d9ebd2b6d97/Documents/Graduate School/2018.4/CS 670/Labs/hw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DADC5C7-E9BB-43D0-B797-7ED3DECBB868}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:4000b_{3F42DB50-57CD-466C-BAC9-4EF0FE032D3D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27429" windowHeight="11134"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Percent connected</t>
   </si>
@@ -44,18 +44,6 @@
   </si>
   <si>
     <t>50 agents</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>slope</t>
-  </si>
-  <si>
-    <t>intercept</t>
   </si>
 </sst>
 </file>
@@ -476,6 +464,1075 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20 agents</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$15:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$15:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F23-45DD-A2D2-C27F16887FC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50 agents</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$15:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$15:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F23-45DD-A2D2-C27F16887FC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1798804768"/>
+        <c:axId val="544048608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1798804768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="868686"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="868686"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="544048608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="544048608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="868686"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:srgbClr val="868686"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1798804768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:ea typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>473528</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>59871</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5999479-0E0C-49AD-806F-A4506AD87A9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -773,10 +1830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15"/>
@@ -1125,13 +2182,9 @@
       <c r="I15" s="4">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="e">
-        <f>1/H15</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L15" s="3" t="e">
-        <f>1/I15</f>
-        <v>#DIV/0!</v>
+      <c r="K15" s="3">
+        <f>0.977716 + (0.000421369 - 0.977716)/(1 + ( G15 /0.6507162)^11.43886)</f>
+        <v>4.2136900000000477E-4</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1145,16 +2198,12 @@
       <c r="I16" s="4">
         <v>0</v>
       </c>
-      <c r="K16" s="3" t="e">
-        <f>1/H16</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L16" s="3" t="e">
-        <f>1/I16</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="3:12">
+      <c r="K16" s="3">
+        <f t="shared" ref="K16:K25" si="1">0.977716 + (0.000421369 - 0.977716)/(1 + ( G16 /0.6507162)^11.43886)</f>
+        <v>4.2136948501214633E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
       <c r="F17" s="6"/>
       <c r="G17" s="7">
         <v>0.2</v>
@@ -1165,16 +2214,12 @@
       <c r="I17" s="4">
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="e">
-        <f>1/H17</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L17" s="3" t="e">
-        <f>1/I17</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12">
+      <c r="K17" s="3">
+        <f t="shared" si="1"/>
+        <v>4.2271545559990908E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
       <c r="F18" s="6"/>
       <c r="G18" s="7">
         <v>0.3</v>
@@ -1185,16 +2230,12 @@
       <c r="I18" s="4">
         <v>0</v>
       </c>
-      <c r="K18" s="3" t="e">
-        <f>1/H18</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L18" s="3" t="e">
-        <f>1/I18</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12">
+      <c r="K18" s="3">
+        <f t="shared" si="1"/>
+        <v>5.6049684687942136E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
       <c r="G19" s="7">
         <v>0.4</v>
       </c>
@@ -1204,16 +2245,12 @@
       <c r="I19" s="4">
         <v>0.28000000000000003</v>
       </c>
-      <c r="K19" s="3" t="e">
-        <f>1/H19</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L19" s="3">
-        <f>1/I19</f>
-        <v>3.5714285714285712</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12">
+      <c r="K19" s="3">
+        <f t="shared" si="1"/>
+        <v>4.1450691020157304E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
       <c r="G20" s="7">
         <v>0.5</v>
       </c>
@@ -1224,15 +2261,11 @@
         <v>0.88</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" ref="K20:K25" si="1">1/H20</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="L20" s="3">
-        <f t="shared" ref="L20:L25" si="2">1/I20</f>
-        <v>1.1363636363636365</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12">
+        <f t="shared" si="1"/>
+        <v>4.616732645002275E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
       <c r="G21" s="7">
         <v>0.6</v>
       </c>
@@ -1244,14 +2277,10 @@
       </c>
       <c r="K21" s="3">
         <f t="shared" si="1"/>
-        <v>3.8461538461538458</v>
-      </c>
-      <c r="L21" s="3">
-        <f t="shared" si="2"/>
-        <v>1.0309278350515465</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12">
+        <v>0.27728034277313762</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
       <c r="G22" s="7">
         <v>0.7</v>
       </c>
@@ -1263,14 +2292,10 @@
       </c>
       <c r="K22" s="3">
         <f t="shared" si="1"/>
-        <v>1.4084507042253522</v>
-      </c>
-      <c r="L22" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12">
+        <v>0.6820209745643061</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
       <c r="G23" s="7">
         <v>0.8</v>
       </c>
@@ -1282,14 +2307,10 @@
       </c>
       <c r="K23" s="3">
         <f t="shared" si="1"/>
-        <v>1.1764705882352942</v>
-      </c>
-      <c r="L23" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12">
+        <v>0.89359776302840366</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11">
       <c r="G24" s="7">
         <v>0.9</v>
       </c>
@@ -1301,14 +2322,10 @@
       </c>
       <c r="K24" s="3">
         <f t="shared" si="1"/>
-        <v>1.0309278350515465</v>
-      </c>
-      <c r="L24" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12">
+        <v>0.95436271103978154</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
       <c r="G25" s="8">
         <v>1</v>
       </c>
@@ -1320,45 +2337,75 @@
       </c>
       <c r="K25" s="3">
         <f t="shared" si="1"/>
-        <v>1.0204081632653061</v>
-      </c>
-      <c r="L25" s="3">
-        <f t="shared" si="2"/>
+        <v>0.97059953446866687</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11">
+      <c r="G26" s="6"/>
+    </row>
+    <row r="29" spans="3:11">
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11">
+      <c r="G30" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="3:12">
-      <c r="G26" s="6"/>
-    </row>
-    <row r="29" spans="3:12">
-      <c r="J29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K29" s="3">
-        <f>SLOPE(K20:K25,$G$20:$G$25)</f>
-        <v>-24.831128761801075</v>
-      </c>
-      <c r="L29" s="3">
-        <f>SLOPE(L19:L25,$G$19:$G$25)</f>
-        <v>-2.8635502935944754</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12">
-      <c r="J30" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12">
+      <c r="H30" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11">
+      <c r="G31" s="15">
+        <v>2</v>
+      </c>
+      <c r="H31" s="16">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11">
       <c r="C32" s="10"/>
-    </row>
-    <row r="33" spans="10:10">
-      <c r="J33" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="10:10">
-      <c r="J34" s="3" t="s">
-        <v>9</v>
+      <c r="G32" s="15">
+        <v>3</v>
+      </c>
+      <c r="H32" s="16">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="33" spans="7:8">
+      <c r="G33" s="15">
+        <v>4</v>
+      </c>
+      <c r="H33" s="16">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="34" spans="7:8">
+      <c r="G34" s="15">
+        <v>5</v>
+      </c>
+      <c r="H34" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="7:8">
+      <c r="G35" s="15">
+        <v>6</v>
+      </c>
+      <c r="H35" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="7:8">
+      <c r="G36" s="18">
+        <v>7</v>
+      </c>
+      <c r="H36" s="19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1373,5 +2420,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>